--- a/Shot_Creation.xlsx
+++ b/Shot_Creation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Estudos\PosCD\Projeto Aplicado\Dados Coletados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2CE4C8-DC4F-4654-9E78-B825203FECBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA32D93-0DA3-4445-A9B8-E99251B10E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>SCA</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Alan Carvalho</t>
-  </si>
-  <si>
-    <t>Squad Total</t>
   </si>
   <si>
     <t>Fabio</t>
@@ -1077,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,10 +1201,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -1271,10 +1268,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1338,10 +1335,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -1408,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1475,7 +1472,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1542,7 +1539,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -1609,7 +1606,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -1676,7 +1673,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -1743,7 +1740,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -1810,7 +1807,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -1877,7 +1874,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -1944,7 +1941,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -2011,7 +2008,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -2078,7 +2075,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
@@ -2145,7 +2142,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
@@ -2212,7 +2209,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -2279,7 +2276,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -2346,7 +2343,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -2413,7 +2410,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>23</v>
@@ -2480,7 +2477,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>41</v>
@@ -2547,7 +2544,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -2614,7 +2611,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -2681,7 +2678,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -2748,7 +2745,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
@@ -2815,7 +2812,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>23</v>
@@ -2882,7 +2879,7 @@
         <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -2949,7 +2946,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -3016,7 +3013,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -3083,7 +3080,7 @@
         <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>23</v>
@@ -3150,7 +3147,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -3217,7 +3214,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
@@ -3284,7 +3281,7 @@
         <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
@@ -3347,82 +3344,27 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="3">
-        <f>AVERAGE(D3:D34)</f>
-        <v>26.90625</v>
-      </c>
-      <c r="E35" s="2">
-        <v>38</v>
-      </c>
-      <c r="F35" s="2">
-        <f>SUM(F3:F34)</f>
-        <v>992</v>
-      </c>
-      <c r="G35" s="3">
-        <f>F35/E35</f>
-        <v>26.105263157894736</v>
-      </c>
-      <c r="H35" s="2">
-        <f>SUM(H3:H34)</f>
-        <v>766</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" ref="I35:N35" si="2">SUM(I3:I34)</f>
-        <v>68</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="O35" s="3">
-        <f>N35/E35</f>
-        <v>2.9473684210526314</v>
-      </c>
-      <c r="P35" s="2">
-        <f>SUM(P3:P34)</f>
-        <v>82</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" ref="Q35:U35" si="3">SUM(Q3:Q34)</f>
-        <v>5</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="T35" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="U35" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
